--- a/MarrigerAggrigator/AllProfiles.xlsx
+++ b/MarrigerAggrigator/AllProfiles.xlsx
@@ -1,23 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{889A7157-AF47-480C-AB57-30DCF677FD8F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF7FA858-8DCC-4E3D-B5E2-ACD89AE3FDC0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>Shaadi</t>
   </si>
@@ -68,14 +74,55 @@
   </si>
   <si>
     <t>Pradnya Phulore_4</t>
+  </si>
+  <si>
+    <t>./ProfilePictures/1</t>
+  </si>
+  <si>
+    <t>./ProfilePictures/2</t>
+  </si>
+  <si>
+    <t>./ProfilePictures/3</t>
+  </si>
+  <si>
+    <t>./ProfilePictures/4</t>
+  </si>
+  <si>
+    <t>./ProfilePictures/5</t>
+  </si>
+  <si>
+    <t>./ProfilePictures/6</t>
+  </si>
+  <si>
+    <t>./ProfilePictures/7</t>
+  </si>
+  <si>
+    <t>./ProfilePictures/8</t>
+  </si>
+  <si>
+    <t>./ProfilePictures/9</t>
+  </si>
+  <si>
+    <t>./ProfilePictures/10</t>
+  </si>
+  <si>
+    <t>.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -109,9 +156,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,27 +514,27 @@
     <col min="6" max="6" width="3.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -505,8 +553,12 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J2" t="str">
+        <f>_xlfn.CONCAT(H2:I2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -525,8 +577,12 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J3" t="str">
+        <f t="shared" ref="J3:J11" si="0">_xlfn.CONCAT(H3:I3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -545,8 +601,12 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -565,9 +625,46 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E27" s="1"/>
+      <c r="J5" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J7" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J8" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J9" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J10" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -576,25 +673,140 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86987E53-8469-47F2-B2F1-964AAA57CC9F}">
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="str">
+        <f>_xlfn.CONCAT(A1:B1)</f>
+        <v>./ProfilePictures/1.png</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C10" si="0">_xlfn.CONCAT(A2:B2)</f>
+        <v>./ProfilePictures/2.png</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>./ProfilePictures/3.png</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>./ProfilePictures/4.png</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>./ProfilePictures/5.png</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>./ProfilePictures/6.png</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>./ProfilePictures/7.png</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>./ProfilePictures/8.png</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>./ProfilePictures/9.png</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>./ProfilePictures/10.png</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>